--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -125,9 +125,6 @@
     <t>buyDrink</t>
   </si>
   <si>
-    <t>hireSailor</t>
-  </si>
-  <si>
     <t>spreadRumor</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>sleep30day</t>
+  </si>
+  <si>
+    <t>hireSailorHaveShip</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,7 +822,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -845,18 +845,18 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>

--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="460" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="3680" yWindow="460" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="selectList.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -285,6 +285,78 @@
   </si>
   <si>
     <t>hireSailorHaveShip</t>
+  </si>
+  <si>
+    <t>npcInfo</t>
+  </si>
+  <si>
+    <t>shipInfo</t>
+  </si>
+  <si>
+    <t>itemInfo</t>
+  </si>
+  <si>
+    <t>taskInfo</t>
+  </si>
+  <si>
+    <t>lab_sailor_info</t>
+  </si>
+  <si>
+    <t>lab_ship_info</t>
+  </si>
+  <si>
+    <t>lab_item_info</t>
+  </si>
+  <si>
+    <t>lab_task_info</t>
+  </si>
+  <si>
+    <t>船员情报</t>
+  </si>
+  <si>
+    <t>船只情报</t>
+  </si>
+  <si>
+    <t>持有道具</t>
+  </si>
+  <si>
+    <t>任务资讯</t>
+  </si>
+  <si>
+    <t>diaryInfo</t>
+  </si>
+  <si>
+    <t>lab_diary_info</t>
+  </si>
+  <si>
+    <t>航海日志</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>读取</t>
+  </si>
+  <si>
+    <t>lab_save</t>
+  </si>
+  <si>
+    <t>lab_load</t>
+  </si>
+  <si>
+    <t>systemSetting</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>lab_setting</t>
   </si>
 </sst>
 </file>
@@ -694,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,6 +1158,118 @@
         <v>11</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="460" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="46040" yWindow="10160" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="selectList.csv" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>sleep30day</t>
   </si>
   <si>
-    <t>hireSailorHaveShip</t>
-  </si>
-  <si>
     <t>npcInfo</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>lab_setting</t>
+  </si>
+  <si>
+    <t>hireSailor</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1230,13 +1230,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>

--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Documents/mygit/SailingGame/DataSource/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="46040" yWindow="10160" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="selectList.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -357,6 +352,15 @@
   </si>
   <si>
     <t>hireSailor</t>
+  </si>
+  <si>
+    <t>systemMenu</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>lab_systemMenu</t>
   </si>
 </sst>
 </file>
@@ -369,6 +373,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -780,7 +785,7 @@
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -794,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -822,7 +827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -836,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -850,7 +855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -864,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -878,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -892,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -906,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -920,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -934,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -948,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -962,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -976,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -990,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1158,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1268,10 +1273,26 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -774,7 +774,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1285,6 +1285,9 @@
       <c r="C36" t="s">
         <v>112</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
@@ -11,18 +16,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -361,6 +366,21 @@
   </si>
   <si>
     <t>lab_systemMenu</t>
+  </si>
+  <si>
+    <t>cancelTask</t>
+  </si>
+  <si>
+    <t>取消任务</t>
+  </si>
+  <si>
+    <t>shop_task_cancel</t>
+  </si>
+  <si>
+    <t>hasTask</t>
+  </si>
+  <si>
+    <t>hasNoTask</t>
   </si>
 </sst>
 </file>
@@ -373,7 +393,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -785,7 +804,7 @@
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -799,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -813,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -827,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -841,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -855,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -869,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -883,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -897,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -911,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -925,7 +944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -939,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -953,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -967,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1037,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1076,226 +1095,235 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/selectList.xlsx
+++ b/DataSource/excel/selectList.xlsx
@@ -359,9 +359,6 @@
     <t>hireSailor</t>
   </si>
   <si>
-    <t>systemMenu</t>
-  </si>
-  <si>
     <t>主界面</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>hasNoTask</t>
+  </si>
+  <si>
+    <t>menuScene</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,21 +1095,21 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>114</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,13 +1310,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
